--- a/data/excel_files/FormattedApr2023.xlsx
+++ b/data/excel_files/FormattedApr2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -55,18 +55,6 @@
   </si>
   <si>
     <t>Exam</t>
-  </si>
-  <si>
-    <t>Coupon 15</t>
-  </si>
-  <si>
-    <t>Coupon 20</t>
-  </si>
-  <si>
-    <t>Coupon 25</t>
-  </si>
-  <si>
-    <t>Coupon 30</t>
   </si>
   <si>
     <t>Acad</t>
@@ -345,7 +333,7 @@
   <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L1" sqref="J1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -375,18 +363,8 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="I1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
@@ -402,7 +380,7 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -429,7 +407,7 @@
         <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -456,7 +434,7 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -483,7 +461,7 @@
         <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -510,7 +488,7 @@
         <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -537,7 +515,7 @@
         <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -564,7 +542,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -591,7 +569,7 @@
         <v>170</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -618,7 +596,7 @@
         <v>105</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -645,7 +623,7 @@
         <v>175</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -672,7 +650,7 @@
         <v>117</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -699,7 +677,7 @@
         <v>138</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -726,7 +704,7 @@
         <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -753,7 +731,7 @@
         <v>197</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -780,7 +758,7 @@
         <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -807,7 +785,7 @@
         <v>109</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -834,7 +812,7 @@
         <v>142</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -861,7 +839,7 @@
         <v>183</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -888,7 +866,7 @@
         <v>86</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -915,7 +893,7 @@
         <v>258</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -942,7 +920,7 @@
         <v>136</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -969,7 +947,7 @@
         <v>187</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -996,7 +974,7 @@
         <v>155</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -1023,7 +1001,7 @@
         <v>123</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -1050,7 +1028,7 @@
         <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
@@ -1077,7 +1055,7 @@
         <v>150</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
@@ -1104,7 +1082,7 @@
         <v>61</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
@@ -1131,7 +1109,7 @@
         <v>146</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
@@ -1158,7 +1136,7 @@
         <v>87</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
@@ -1185,7 +1163,7 @@
         <v>159</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
@@ -1212,7 +1190,7 @@
         <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
@@ -1239,7 +1217,7 @@
         <v>92</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
@@ -1266,7 +1244,7 @@
         <v>82</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
@@ -1293,7 +1271,7 @@
         <v>123</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
@@ -1320,7 +1298,7 @@
         <v>133</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
@@ -1347,7 +1325,7 @@
         <v>200</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
@@ -1374,7 +1352,7 @@
         <v>130</v>
       </c>
       <c r="E38" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -1401,7 +1379,7 @@
         <v>227</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -1428,7 +1406,7 @@
         <v>130</v>
       </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -1455,7 +1433,7 @@
         <v>184</v>
       </c>
       <c r="E41" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -1482,7 +1460,7 @@
         <v>155</v>
       </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -1509,7 +1487,7 @@
         <v>243</v>
       </c>
       <c r="E43" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -1536,7 +1514,7 @@
         <v>180</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -1563,7 +1541,7 @@
         <v>146</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -1590,7 +1568,7 @@
         <v>163</v>
       </c>
       <c r="E46" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -1617,7 +1595,7 @@
         <v>178</v>
       </c>
       <c r="E47" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -1644,7 +1622,7 @@
         <v>119</v>
       </c>
       <c r="E48" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -1671,7 +1649,7 @@
         <v>281</v>
       </c>
       <c r="E49" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -1698,7 +1676,7 @@
         <v>126</v>
       </c>
       <c r="E50" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -1725,7 +1703,7 @@
         <v>208</v>
       </c>
       <c r="E51" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -1752,7 +1730,7 @@
         <v>176</v>
       </c>
       <c r="E52" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -1779,7 +1757,7 @@
         <v>172</v>
       </c>
       <c r="E53" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -1806,7 +1784,7 @@
         <v>128</v>
       </c>
       <c r="E54" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -1833,7 +1811,7 @@
         <v>157</v>
       </c>
       <c r="E55" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -1860,7 +1838,7 @@
         <v>70</v>
       </c>
       <c r="E56" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -1887,7 +1865,7 @@
         <v>209</v>
       </c>
       <c r="E57" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -1914,7 +1892,7 @@
         <v>128</v>
       </c>
       <c r="E58" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -1941,7 +1919,7 @@
         <v>244</v>
       </c>
       <c r="E59" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -1968,7 +1946,7 @@
         <v>104</v>
       </c>
       <c r="E60" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -1995,7 +1973,7 @@
         <v>111</v>
       </c>
       <c r="E61" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -2022,7 +2000,7 @@
         <v>118</v>
       </c>
       <c r="E62" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -2049,7 +2027,7 @@
         <v>163</v>
       </c>
       <c r="E63" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -2076,7 +2054,7 @@
         <v>169</v>
       </c>
       <c r="E64" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -2103,7 +2081,7 @@
         <v>243</v>
       </c>
       <c r="E65" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -2130,7 +2108,7 @@
         <v>125</v>
       </c>
       <c r="E66" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -2157,7 +2135,7 @@
         <v>243</v>
       </c>
       <c r="E67" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -2184,7 +2162,7 @@
         <v>135</v>
       </c>
       <c r="E68" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -2211,7 +2189,7 @@
         <v>157</v>
       </c>
       <c r="E69" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -2238,7 +2216,7 @@
         <v>141</v>
       </c>
       <c r="E70" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -2265,7 +2243,7 @@
         <v>247</v>
       </c>
       <c r="E71" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -2292,7 +2270,7 @@
         <v>164</v>
       </c>
       <c r="E72" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -2319,7 +2297,7 @@
         <v>152</v>
       </c>
       <c r="E73" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -2346,7 +2324,7 @@
         <v>139</v>
       </c>
       <c r="E74" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -2373,7 +2351,7 @@
         <v>162</v>
       </c>
       <c r="E75" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -2400,7 +2378,7 @@
         <v>85</v>
       </c>
       <c r="E76" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -2427,7 +2405,7 @@
         <v>270</v>
       </c>
       <c r="E77" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -2454,7 +2432,7 @@
         <v>124</v>
       </c>
       <c r="E78" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -2481,7 +2459,7 @@
         <v>190</v>
       </c>
       <c r="E79" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -2508,7 +2486,7 @@
         <v>146</v>
       </c>
       <c r="E80" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -2535,7 +2513,7 @@
         <v>120</v>
       </c>
       <c r="E81" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
@@ -2562,7 +2540,7 @@
         <v>99</v>
       </c>
       <c r="E82" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F82" s="1">
         <v>0</v>
@@ -2589,7 +2567,7 @@
         <v>143</v>
       </c>
       <c r="E83" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
@@ -2616,7 +2594,7 @@
         <v>44</v>
       </c>
       <c r="E84" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F84" s="1">
         <v>0</v>
@@ -2643,7 +2621,7 @@
         <v>144</v>
       </c>
       <c r="E85" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F85" s="1">
         <v>0</v>
@@ -2670,7 +2648,7 @@
         <v>94</v>
       </c>
       <c r="E86" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F86" s="1">
         <v>1</v>
@@ -2697,7 +2675,7 @@
         <v>178</v>
       </c>
       <c r="E87" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F87" s="1">
         <v>1</v>
@@ -2718,7 +2696,7 @@
         <v>8</v>
       </c>
       <c r="E88" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F88" s="1">
         <v>1</v>
@@ -2745,7 +2723,7 @@
         <v>77</v>
       </c>
       <c r="E89" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F89" s="1">
         <v>1</v>
@@ -2772,7 +2750,7 @@
         <v>74</v>
       </c>
       <c r="E90" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F90" s="1">
         <v>1</v>
@@ -2799,7 +2777,7 @@
         <v>133</v>
       </c>
       <c r="E91" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F91" s="1">
         <v>1</v>
@@ -2826,7 +2804,7 @@
         <v>88</v>
       </c>
       <c r="E92" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F92" s="1">
         <v>1</v>
@@ -2853,7 +2831,7 @@
         <v>197</v>
       </c>
       <c r="E93" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F93" s="1">
         <v>1</v>
@@ -2880,7 +2858,7 @@
         <v>113</v>
       </c>
       <c r="E94" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F94" s="1">
         <v>0</v>
@@ -2907,7 +2885,7 @@
         <v>181</v>
       </c>
       <c r="E95" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F95" s="1">
         <v>0</v>
@@ -2934,7 +2912,7 @@
         <v>107</v>
       </c>
       <c r="E96" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F96" s="1">
         <v>0</v>
@@ -2961,7 +2939,7 @@
         <v>150</v>
       </c>
       <c r="E97" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F97" s="1">
         <v>0</v>
@@ -2988,7 +2966,7 @@
         <v>127</v>
       </c>
       <c r="E98" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F98" s="1">
         <v>0</v>
@@ -3015,7 +2993,7 @@
         <v>201</v>
       </c>
       <c r="E99" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F99" s="1">
         <v>0</v>
@@ -3042,7 +3020,7 @@
         <v>140</v>
       </c>
       <c r="E100" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F100" s="1">
         <v>0</v>
@@ -3069,7 +3047,7 @@
         <v>106</v>
       </c>
       <c r="E101" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F101" s="1">
         <v>0</v>
@@ -3096,7 +3074,7 @@
         <v>130</v>
       </c>
       <c r="E102" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F102" s="1">
         <v>0</v>
@@ -3123,7 +3101,7 @@
         <v>137</v>
       </c>
       <c r="E103" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F103" s="1">
         <v>0</v>
@@ -3150,7 +3128,7 @@
         <v>101</v>
       </c>
       <c r="E104" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F104" s="1">
         <v>0</v>
@@ -3177,7 +3155,7 @@
         <v>254</v>
       </c>
       <c r="E105" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F105" s="1">
         <v>0</v>
@@ -3204,7 +3182,7 @@
         <v>117</v>
       </c>
       <c r="E106" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F106" s="1">
         <v>0</v>
@@ -3231,7 +3209,7 @@
         <v>154</v>
       </c>
       <c r="E107" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F107" s="1">
         <v>0</v>
@@ -3258,7 +3236,7 @@
         <v>180</v>
       </c>
       <c r="E108" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F108" s="1">
         <v>0</v>
@@ -3285,7 +3263,7 @@
         <v>133</v>
       </c>
       <c r="E109" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F109" s="1">
         <v>0</v>
@@ -3312,7 +3290,7 @@
         <v>106</v>
       </c>
       <c r="E110" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F110" s="1">
         <v>0</v>
@@ -3339,7 +3317,7 @@
         <v>111</v>
       </c>
       <c r="E111" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F111" s="1">
         <v>0</v>
@@ -3364,7 +3342,7 @@
       </c>
       <c r="D112" s="1"/>
       <c r="E112" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F112" s="1">
         <v>0</v>
@@ -3391,7 +3369,7 @@
         <v>160</v>
       </c>
       <c r="E113" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F113" s="1">
         <v>0</v>
@@ -3418,7 +3396,7 @@
         <v>111</v>
       </c>
       <c r="E114" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F114" s="1">
         <v>0</v>
@@ -3445,7 +3423,7 @@
         <v>185</v>
       </c>
       <c r="E115" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F115" s="1">
         <v>0</v>
@@ -3472,7 +3450,7 @@
         <v>80</v>
       </c>
       <c r="E116" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F116" s="1">
         <v>0</v>
@@ -3499,7 +3477,7 @@
         <v>71</v>
       </c>
       <c r="E117" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F117" s="1">
         <v>0</v>
@@ -3526,7 +3504,7 @@
         <v>67</v>
       </c>
       <c r="E118" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F118" s="1">
         <v>0</v>
@@ -3553,7 +3531,7 @@
         <v>114</v>
       </c>
       <c r="E119" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F119" s="1">
         <v>0</v>
@@ -3580,7 +3558,7 @@
         <v>105</v>
       </c>
       <c r="E120" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F120" s="1">
         <v>0</v>
@@ -3607,7 +3585,7 @@
         <v>213</v>
       </c>
       <c r="E121" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F121" s="1">
         <v>0</v>
